--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_64ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_64ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3652,28 +3652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2977.969619806325</v>
+        <v>3123.687057815885</v>
       </c>
       <c r="AB2" t="n">
-        <v>4074.589412566625</v>
+        <v>4273.966439850974</v>
       </c>
       <c r="AC2" t="n">
-        <v>3685.716317753271</v>
+        <v>3866.065081381009</v>
       </c>
       <c r="AD2" t="n">
-        <v>2977969.619806325</v>
+        <v>3123687.057815885</v>
       </c>
       <c r="AE2" t="n">
-        <v>4074589.412566626</v>
+        <v>4273966.439850974</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.645744491786684e-07</v>
+        <v>1.292551041616152e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.50173611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>3685716.317753271</v>
+        <v>3866065.081381009</v>
       </c>
     </row>
     <row r="3">
@@ -3758,28 +3758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1410.160265458611</v>
+        <v>1503.805282445267</v>
       </c>
       <c r="AB3" t="n">
-        <v>1929.44348708069</v>
+        <v>2057.572730648407</v>
       </c>
       <c r="AC3" t="n">
-        <v>1745.30010866465</v>
+        <v>1861.200877056787</v>
       </c>
       <c r="AD3" t="n">
-        <v>1410160.265458611</v>
+        <v>1503805.282445267</v>
       </c>
       <c r="AE3" t="n">
-        <v>1929443.48708069</v>
+        <v>2057572.730648407</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.207783010694255e-06</v>
+        <v>2.041817105183361e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.77734375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1745300.10866465</v>
+        <v>1861200.877056787</v>
       </c>
     </row>
     <row r="4">
@@ -3864,28 +3864,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1141.601847418498</v>
+        <v>1224.832380200573</v>
       </c>
       <c r="AB4" t="n">
-        <v>1561.990011556991</v>
+        <v>1675.869698381385</v>
       </c>
       <c r="AC4" t="n">
-        <v>1412.915877120741</v>
+        <v>1515.927046465759</v>
       </c>
       <c r="AD4" t="n">
-        <v>1141601.847418498</v>
+        <v>1224832.380200573</v>
       </c>
       <c r="AE4" t="n">
-        <v>1561990.011556991</v>
+        <v>1675869.698381385</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.37724236168452e-06</v>
+        <v>2.328296545961639e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.71137152777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1412915.877120741</v>
+        <v>1515927.046465759</v>
       </c>
     </row>
     <row r="5">
@@ -3970,28 +3970,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1019.728968398215</v>
+        <v>1092.63035783028</v>
       </c>
       <c r="AB5" t="n">
-        <v>1395.238161829481</v>
+        <v>1494.985059032749</v>
       </c>
       <c r="AC5" t="n">
-        <v>1262.078589893534</v>
+        <v>1352.305783223371</v>
       </c>
       <c r="AD5" t="n">
-        <v>1019728.968398215</v>
+        <v>1092630.35783028</v>
       </c>
       <c r="AE5" t="n">
-        <v>1395238.161829481</v>
+        <v>1494985.059032749</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.470048199086352e-06</v>
+        <v>2.485189418762525e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.78255208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1262078.589893534</v>
+        <v>1352305.783223371</v>
       </c>
     </row>
     <row r="6">
@@ -4076,28 +4076,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>956.0662568112612</v>
+        <v>1028.797054042735</v>
       </c>
       <c r="AB6" t="n">
-        <v>1308.132031235598</v>
+        <v>1407.645516664018</v>
       </c>
       <c r="AC6" t="n">
-        <v>1183.285746149309</v>
+        <v>1273.301804196495</v>
       </c>
       <c r="AD6" t="n">
-        <v>956066.2568112612</v>
+        <v>1028797.054042735</v>
       </c>
       <c r="AE6" t="n">
-        <v>1308132.031235598</v>
+        <v>1407645.516664018</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.526628015450044e-06</v>
+        <v>2.580840405600892e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.27256944444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>1183285.746149309</v>
+        <v>1273301.804196495</v>
       </c>
     </row>
     <row r="7">
@@ -4182,28 +4182,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>899.6665381576983</v>
+        <v>972.4825867351924</v>
       </c>
       <c r="AB7" t="n">
-        <v>1230.963447993813</v>
+        <v>1330.593578074883</v>
       </c>
       <c r="AC7" t="n">
-        <v>1113.482024185333</v>
+        <v>1203.603594483231</v>
       </c>
       <c r="AD7" t="n">
-        <v>899666.5381576982</v>
+        <v>972482.5867351925</v>
       </c>
       <c r="AE7" t="n">
-        <v>1230963.447993813</v>
+        <v>1330593.578074883</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.566215213697907e-06</v>
+        <v>2.647764528405295e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.93619791666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1113482.024185333</v>
+        <v>1203603.594483231</v>
       </c>
     </row>
     <row r="8">
@@ -4288,28 +4288,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>863.7344771537001</v>
+        <v>936.5505257311945</v>
       </c>
       <c r="AB8" t="n">
-        <v>1181.79961691749</v>
+        <v>1281.42974699856</v>
       </c>
       <c r="AC8" t="n">
-        <v>1069.010320145064</v>
+        <v>1159.131890442962</v>
       </c>
       <c r="AD8" t="n">
-        <v>863734.4771537002</v>
+        <v>936550.5257311945</v>
       </c>
       <c r="AE8" t="n">
-        <v>1181799.61691749</v>
+        <v>1281429.74699856</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.594878586014167e-06</v>
+        <v>2.696221381473576e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.70399305555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>1069010.320145064</v>
+        <v>1159131.890442962</v>
       </c>
     </row>
     <row r="9">
@@ -4394,28 +4394,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>831.684854890627</v>
+        <v>894.2571009726836</v>
       </c>
       <c r="AB9" t="n">
-        <v>1137.947909807609</v>
+        <v>1223.56201738975</v>
       </c>
       <c r="AC9" t="n">
-        <v>1029.343758415492</v>
+        <v>1106.786975730149</v>
       </c>
       <c r="AD9" t="n">
-        <v>831684.854890627</v>
+        <v>894257.1009726836</v>
       </c>
       <c r="AE9" t="n">
-        <v>1137947.909807609</v>
+        <v>1223562.01738975</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.616819603910978e-06</v>
+        <v>2.733313760858091e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.53255208333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1029343.758415492</v>
+        <v>1106786.975730149</v>
       </c>
     </row>
     <row r="10">
@@ -4500,28 +4500,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>805.6936057067257</v>
+        <v>868.0952595881902</v>
       </c>
       <c r="AB10" t="n">
-        <v>1102.385536021208</v>
+        <v>1187.766231828502</v>
       </c>
       <c r="AC10" t="n">
-        <v>997.1754076711603</v>
+        <v>1074.407489703166</v>
       </c>
       <c r="AD10" t="n">
-        <v>805693.6057067257</v>
+        <v>868095.2595881901</v>
       </c>
       <c r="AE10" t="n">
-        <v>1102385.536021208</v>
+        <v>1187766.231828502</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.6336254899596e-06</v>
+        <v>2.761724945067508e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.40234375</v>
       </c>
       <c r="AH10" t="n">
-        <v>997175.4076711603</v>
+        <v>1074407.489703166</v>
       </c>
     </row>
     <row r="11">
@@ -4606,28 +4606,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>782.424478125022</v>
+        <v>844.8261320064863</v>
       </c>
       <c r="AB11" t="n">
-        <v>1070.547689102463</v>
+        <v>1155.928384909757</v>
       </c>
       <c r="AC11" t="n">
-        <v>968.3761201776416</v>
+        <v>1045.608202209647</v>
       </c>
       <c r="AD11" t="n">
-        <v>782424.478125022</v>
+        <v>844826.1320064863</v>
       </c>
       <c r="AE11" t="n">
-        <v>1070547.689102463</v>
+        <v>1155928.384909757</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.646510002596876e-06</v>
+        <v>2.783506852961393e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.30685763888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>968376.1201776416</v>
+        <v>1045608.202209647</v>
       </c>
     </row>
     <row r="12">
@@ -4712,28 +4712,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>777.3275542074124</v>
+        <v>839.7292080888767</v>
       </c>
       <c r="AB12" t="n">
-        <v>1063.573852937976</v>
+        <v>1148.95454874527</v>
       </c>
       <c r="AC12" t="n">
-        <v>962.0678571488529</v>
+        <v>1039.299939180858</v>
       </c>
       <c r="AD12" t="n">
-        <v>777327.5542074124</v>
+        <v>839729.2080888767</v>
       </c>
       <c r="AE12" t="n">
-        <v>1063573.852937976</v>
+        <v>1148954.54874527</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.649404349638583e-06</v>
+        <v>2.788399890241903e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.28515625</v>
       </c>
       <c r="AH12" t="n">
-        <v>962067.8571488529</v>
+        <v>1039299.939180858</v>
       </c>
     </row>
     <row r="13">
@@ -4818,28 +4818,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>781.5507119276616</v>
+        <v>843.952365809126</v>
       </c>
       <c r="AB13" t="n">
-        <v>1069.352163643391</v>
+        <v>1154.732859450685</v>
       </c>
       <c r="AC13" t="n">
-        <v>967.2946939904526</v>
+        <v>1044.526776022458</v>
       </c>
       <c r="AD13" t="n">
-        <v>781550.7119276616</v>
+        <v>843952.3658091261</v>
       </c>
       <c r="AE13" t="n">
-        <v>1069352.163643391</v>
+        <v>1154732.859450685</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.648844153436962e-06</v>
+        <v>2.787452850768256e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.28732638888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>967294.6939904527</v>
+        <v>1044526.776022458</v>
       </c>
     </row>
   </sheetData>
@@ -5115,28 +5115,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2066.754745376639</v>
+        <v>2177.66574031308</v>
       </c>
       <c r="AB2" t="n">
-        <v>2827.825021408607</v>
+        <v>2979.578337728408</v>
       </c>
       <c r="AC2" t="n">
-        <v>2557.941370242714</v>
+        <v>2695.21156304007</v>
       </c>
       <c r="AD2" t="n">
-        <v>2066754.745376639</v>
+        <v>2177665.74031308</v>
       </c>
       <c r="AE2" t="n">
-        <v>2827825.021408607</v>
+        <v>2979578.337728408</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.38911101265959e-07</v>
+        <v>1.625997801998437e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.32421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>2557941.370242714</v>
+        <v>2695211.56304007</v>
       </c>
     </row>
     <row r="3">
@@ -5221,28 +5221,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1131.982776493117</v>
+        <v>1212.707319243998</v>
       </c>
       <c r="AB3" t="n">
-        <v>1548.828774353425</v>
+        <v>1659.279655060662</v>
       </c>
       <c r="AC3" t="n">
-        <v>1401.010729923971</v>
+        <v>1500.920333595294</v>
       </c>
       <c r="AD3" t="n">
-        <v>1131982.776493117</v>
+        <v>1212707.319243998</v>
       </c>
       <c r="AE3" t="n">
-        <v>1548828.774353425</v>
+        <v>1659279.655060661</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.351429290084693e-06</v>
+        <v>2.340393091817933e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.50998263888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1401010.729923971</v>
+        <v>1500920.333595294</v>
       </c>
     </row>
     <row r="4">
@@ -5327,28 +5327,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>939.4788722220209</v>
+        <v>1020.032733263759</v>
       </c>
       <c r="AB4" t="n">
-        <v>1285.436439856838</v>
+        <v>1395.653786319679</v>
       </c>
       <c r="AC4" t="n">
-        <v>1162.756190158275</v>
+        <v>1262.45454776572</v>
       </c>
       <c r="AD4" t="n">
-        <v>939478.8722220209</v>
+        <v>1020032.733263759</v>
       </c>
       <c r="AE4" t="n">
-        <v>1285436.439856838</v>
+        <v>1395653.786319679</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.503358840778176e-06</v>
+        <v>2.603503321479855e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.94097222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1162756.190158275</v>
+        <v>1262454.54776572</v>
       </c>
     </row>
     <row r="5">
@@ -5433,28 +5433,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>854.9534309917892</v>
+        <v>925.416813698218</v>
       </c>
       <c r="AB5" t="n">
-        <v>1169.785002166347</v>
+        <v>1266.196111010332</v>
       </c>
       <c r="AC5" t="n">
-        <v>1058.142363363152</v>
+        <v>1145.352131292909</v>
       </c>
       <c r="AD5" t="n">
-        <v>854953.4309917892</v>
+        <v>925416.813698218</v>
       </c>
       <c r="AE5" t="n">
-        <v>1169785.002166347</v>
+        <v>1266196.111010332</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.58516706038236e-06</v>
+        <v>2.745178060528582e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.22265625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1058142.363363152</v>
+        <v>1145352.131292909</v>
       </c>
     </row>
     <row r="6">
@@ -5539,28 +5539,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>791.4451022672395</v>
+        <v>861.993736319689</v>
       </c>
       <c r="AB6" t="n">
-        <v>1082.890105015696</v>
+        <v>1179.41785851233</v>
       </c>
       <c r="AC6" t="n">
-        <v>979.5405932388048</v>
+        <v>1066.855873419273</v>
       </c>
       <c r="AD6" t="n">
-        <v>791445.1022672395</v>
+        <v>861993.736319689</v>
       </c>
       <c r="AE6" t="n">
-        <v>1082890.105015696</v>
+        <v>1179417.85851233</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.636164392083669e-06</v>
+        <v>2.833494780974542e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.81032986111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>979540.5932388048</v>
+        <v>1066855.873419273</v>
       </c>
     </row>
     <row r="7">
@@ -5645,28 +5645,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>749.1236682857219</v>
+        <v>819.6723023381713</v>
       </c>
       <c r="AB7" t="n">
-        <v>1024.984051952289</v>
+        <v>1121.511805448923</v>
       </c>
       <c r="AC7" t="n">
-        <v>927.1610126081134</v>
+        <v>1014.476292788582</v>
       </c>
       <c r="AD7" t="n">
-        <v>749123.6682857219</v>
+        <v>819672.3023381713</v>
       </c>
       <c r="AE7" t="n">
-        <v>1024984.051952289</v>
+        <v>1121511.805448923</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.669583098084905e-06</v>
+        <v>2.891368995509205e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.55425347222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>927161.0126081135</v>
+        <v>1014476.292788582</v>
       </c>
     </row>
     <row r="8">
@@ -5751,28 +5751,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>716.3719724336677</v>
+        <v>776.8301281508079</v>
       </c>
       <c r="AB8" t="n">
-        <v>980.171736784663</v>
+        <v>1062.893252662441</v>
       </c>
       <c r="AC8" t="n">
-        <v>886.6255219056068</v>
+        <v>961.4522124083866</v>
       </c>
       <c r="AD8" t="n">
-        <v>716371.9724336676</v>
+        <v>776830.1281508079</v>
       </c>
       <c r="AE8" t="n">
-        <v>980171.7367846631</v>
+        <v>1062893.252662441</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.693536390247642e-06</v>
+        <v>2.932851091476246e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.37630208333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>886625.5219056067</v>
+        <v>961452.2124083865</v>
       </c>
     </row>
     <row r="9">
@@ -5857,28 +5857,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>710.7063238325909</v>
+        <v>771.1644795497314</v>
       </c>
       <c r="AB9" t="n">
-        <v>972.4197464178941</v>
+        <v>1055.141262295673</v>
       </c>
       <c r="AC9" t="n">
-        <v>879.6133706194556</v>
+        <v>954.4400611222354</v>
       </c>
       <c r="AD9" t="n">
-        <v>710706.3238325909</v>
+        <v>771164.4795497314</v>
       </c>
       <c r="AE9" t="n">
-        <v>972419.7464178941</v>
+        <v>1055141.262295672</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.698269097166892e-06</v>
+        <v>2.941047150760057e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.34157986111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>879613.3706194556</v>
+        <v>954440.0611222354</v>
       </c>
     </row>
     <row r="10">
@@ -5963,28 +5963,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>713.93419358867</v>
+        <v>774.3923493058104</v>
       </c>
       <c r="AB10" t="n">
-        <v>976.836260221725</v>
+        <v>1059.557776099503</v>
       </c>
       <c r="AC10" t="n">
-        <v>883.6083785444648</v>
+        <v>958.4350690472445</v>
       </c>
       <c r="AD10" t="n">
-        <v>713934.19358867</v>
+        <v>774392.3493058104</v>
       </c>
       <c r="AE10" t="n">
-        <v>976836.260221725</v>
+        <v>1059557.776099503</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.698365683022386e-06</v>
+        <v>2.941214417276053e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.34157986111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>883608.3785444648</v>
+        <v>958435.0690472445</v>
       </c>
     </row>
   </sheetData>
@@ -6260,28 +6260,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>813.8239398668832</v>
+        <v>886.7468647686062</v>
       </c>
       <c r="AB2" t="n">
-        <v>1113.509817904164</v>
+        <v>1213.286180887094</v>
       </c>
       <c r="AC2" t="n">
-        <v>1007.238003704235</v>
+        <v>1097.491850641079</v>
       </c>
       <c r="AD2" t="n">
-        <v>813823.9398668832</v>
+        <v>886746.8647686061</v>
       </c>
       <c r="AE2" t="n">
-        <v>1113509.817904164</v>
+        <v>1213286.180887094</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.501100567048618e-06</v>
+        <v>2.840405294266019e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.58159722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1007238.003704235</v>
+        <v>1097491.850641079</v>
       </c>
     </row>
     <row r="3">
@@ -6366,28 +6366,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>575.4178823827211</v>
+        <v>630.1101655675643</v>
       </c>
       <c r="AB3" t="n">
-        <v>787.3121323213815</v>
+        <v>862.1445270281276</v>
       </c>
       <c r="AC3" t="n">
-        <v>712.172167412146</v>
+        <v>779.8626633960058</v>
       </c>
       <c r="AD3" t="n">
-        <v>575417.8823827212</v>
+        <v>630110.1655675643</v>
       </c>
       <c r="AE3" t="n">
-        <v>787312.1323213815</v>
+        <v>862144.5270281277</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.793927264397203e-06</v>
+        <v>3.39449641894442e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.03819444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>712172.167412146</v>
+        <v>779862.6633960059</v>
       </c>
     </row>
     <row r="4">
@@ -6472,28 +6472,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>549.7445495435361</v>
+        <v>613.466767977972</v>
       </c>
       <c r="AB4" t="n">
-        <v>752.1847457033007</v>
+        <v>839.3722961911669</v>
       </c>
       <c r="AC4" t="n">
-        <v>680.3972892712981</v>
+        <v>759.2637823090979</v>
       </c>
       <c r="AD4" t="n">
-        <v>549744.5495435362</v>
+        <v>613466.767977972</v>
       </c>
       <c r="AE4" t="n">
-        <v>752184.7457033007</v>
+        <v>839372.296191167</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.820655648991407e-06</v>
+        <v>3.445072274270237e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.84722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>680397.2892712981</v>
+        <v>759263.7823090979</v>
       </c>
     </row>
   </sheetData>
@@ -6769,28 +6769,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1156.352120532597</v>
+        <v>1241.821797543349</v>
       </c>
       <c r="AB2" t="n">
-        <v>1582.171985967824</v>
+        <v>1699.115368709965</v>
       </c>
       <c r="AC2" t="n">
-        <v>1431.171712219383</v>
+        <v>1536.954182643683</v>
       </c>
       <c r="AD2" t="n">
-        <v>1156352.120532597</v>
+        <v>1241821.797543349</v>
       </c>
       <c r="AE2" t="n">
-        <v>1582171.985967824</v>
+        <v>1699115.368709965</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.274076327011998e-06</v>
+        <v>2.321090370569744e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.56293402777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1431171.712219383</v>
+        <v>1536954.182643682</v>
       </c>
     </row>
     <row r="3">
@@ -6875,28 +6875,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>756.0289397284465</v>
+        <v>822.5053551812538</v>
       </c>
       <c r="AB3" t="n">
-        <v>1034.4321489793</v>
+        <v>1125.388113334299</v>
       </c>
       <c r="AC3" t="n">
-        <v>935.7073965153544</v>
+        <v>1017.98265128981</v>
       </c>
       <c r="AD3" t="n">
-        <v>756028.9397284465</v>
+        <v>822505.3551812537</v>
       </c>
       <c r="AE3" t="n">
-        <v>1034432.1489793</v>
+        <v>1125388.113334299</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.618036724107735e-06</v>
+        <v>2.947711514554583e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>935707.3965153544</v>
+        <v>1017982.65128981</v>
       </c>
     </row>
     <row r="4">
@@ -6981,28 +6981,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>643.5463379487207</v>
+        <v>709.9374125469564</v>
       </c>
       <c r="AB4" t="n">
-        <v>880.5284908421164</v>
+        <v>971.3676880749172</v>
       </c>
       <c r="AC4" t="n">
-        <v>796.4920875056424</v>
+        <v>878.6617192481591</v>
       </c>
       <c r="AD4" t="n">
-        <v>643546.3379487208</v>
+        <v>709937.4125469563</v>
       </c>
       <c r="AE4" t="n">
-        <v>880528.4908421164</v>
+        <v>971367.6880749172</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.740732429306754e-06</v>
+        <v>3.171236443014403e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.85373263888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>796492.0875056424</v>
+        <v>878661.7192481591</v>
       </c>
     </row>
     <row r="5">
@@ -7087,28 +7087,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>604.4691470321603</v>
+        <v>670.8602216303958</v>
       </c>
       <c r="AB5" t="n">
-        <v>827.0613542660863</v>
+        <v>917.900551498887</v>
       </c>
       <c r="AC5" t="n">
-        <v>748.1277794028314</v>
+        <v>830.2974111453478</v>
       </c>
       <c r="AD5" t="n">
-        <v>604469.1470321603</v>
+        <v>670860.2216303959</v>
       </c>
       <c r="AE5" t="n">
-        <v>827061.3542660862</v>
+        <v>917900.551498887</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.781562260616679e-06</v>
+        <v>3.245619528451452e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.56076388888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>748127.7794028313</v>
+        <v>830297.4111453479</v>
       </c>
     </row>
     <row r="6">
@@ -7193,28 +7193,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>608.7239844043219</v>
+        <v>675.1150590025575</v>
       </c>
       <c r="AB6" t="n">
-        <v>832.8830104688545</v>
+        <v>923.7222077016555</v>
       </c>
       <c r="AC6" t="n">
-        <v>753.3938249083533</v>
+        <v>835.56345665087</v>
       </c>
       <c r="AD6" t="n">
-        <v>608723.9844043219</v>
+        <v>675115.0590025574</v>
       </c>
       <c r="AE6" t="n">
-        <v>832883.0104688546</v>
+        <v>923722.2077016556</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.780840521174332e-06</v>
+        <v>3.244304675931102e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.56510416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>753393.8249083533</v>
+        <v>835563.4566508699</v>
       </c>
     </row>
   </sheetData>
@@ -7490,28 +7490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>600.9548227093248</v>
+        <v>662.4881211327756</v>
       </c>
       <c r="AB2" t="n">
-        <v>822.252900686536</v>
+        <v>906.4454742470366</v>
       </c>
       <c r="AC2" t="n">
-        <v>743.7782378842064</v>
+        <v>819.9355903891121</v>
       </c>
       <c r="AD2" t="n">
-        <v>600954.8227093249</v>
+        <v>662488.1211327757</v>
       </c>
       <c r="AE2" t="n">
-        <v>822252.900686536</v>
+        <v>906445.4742470366</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.700727915820683e-06</v>
+        <v>3.332878739678683e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.28385416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>743778.2378842065</v>
+        <v>819935.5903891121</v>
       </c>
     </row>
     <row r="3">
@@ -7596,28 +7596,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>515.8218432830192</v>
+        <v>577.2698008518984</v>
       </c>
       <c r="AB3" t="n">
-        <v>705.7702024334836</v>
+        <v>789.8460088717866</v>
       </c>
       <c r="AC3" t="n">
-        <v>638.4124848679315</v>
+        <v>714.4642143408984</v>
       </c>
       <c r="AD3" t="n">
-        <v>515821.8432830193</v>
+        <v>577269.8008518984</v>
       </c>
       <c r="AE3" t="n">
-        <v>705770.2024334837</v>
+        <v>789846.0088717865</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.830795431825924e-06</v>
+        <v>3.587769163234469e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.26822916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>638412.4848679316</v>
+        <v>714464.2143408983</v>
       </c>
     </row>
   </sheetData>
@@ -7893,28 +7893,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2269.189240104456</v>
+        <v>2391.127125784057</v>
       </c>
       <c r="AB2" t="n">
-        <v>3104.804827874989</v>
+        <v>3271.645622581678</v>
       </c>
       <c r="AC2" t="n">
-        <v>2808.486612723427</v>
+        <v>2959.404356145829</v>
       </c>
       <c r="AD2" t="n">
-        <v>2269189.240104456</v>
+        <v>2391127.125784057</v>
       </c>
       <c r="AE2" t="n">
-        <v>3104804.827874989</v>
+        <v>3271645.622581678</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.915196099139739e-07</v>
+        <v>1.533842734786889e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.29861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>2808486.612723427</v>
+        <v>2959404.356145829</v>
       </c>
     </row>
     <row r="3">
@@ -7999,28 +7999,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1197.407570825384</v>
+        <v>1278.813222745513</v>
       </c>
       <c r="AB3" t="n">
-        <v>1638.345864297052</v>
+        <v>1749.728668618069</v>
       </c>
       <c r="AC3" t="n">
-        <v>1481.984434441403</v>
+        <v>1582.73702024477</v>
       </c>
       <c r="AD3" t="n">
-        <v>1197407.570825384</v>
+        <v>1278813.222745513</v>
       </c>
       <c r="AE3" t="n">
-        <v>1638345.864297052</v>
+        <v>1749728.668618069</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.312584111096234e-06</v>
+        <v>2.258276296127615e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.82465277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1481984.434441403</v>
+        <v>1582737.02024477</v>
       </c>
     </row>
     <row r="4">
@@ -8105,28 +8105,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>995.1122565135466</v>
+        <v>1066.256950597639</v>
       </c>
       <c r="AB4" t="n">
-        <v>1361.556490616197</v>
+        <v>1458.899799744438</v>
       </c>
       <c r="AC4" t="n">
-        <v>1231.611450108323</v>
+        <v>1319.664450435557</v>
       </c>
       <c r="AD4" t="n">
-        <v>995112.2565135467</v>
+        <v>1066256.950597639</v>
       </c>
       <c r="AE4" t="n">
-        <v>1361556.490616197</v>
+        <v>1458899.799744438</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.471093502766573e-06</v>
+        <v>2.530988725675295e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.12109375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1231611.450108323</v>
+        <v>1319664.450435557</v>
       </c>
     </row>
     <row r="5">
@@ -8211,28 +8211,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>896.2887961759741</v>
+        <v>967.3481494054946</v>
       </c>
       <c r="AB5" t="n">
-        <v>1226.341872398959</v>
+        <v>1323.568414405001</v>
       </c>
       <c r="AC5" t="n">
-        <v>1109.30152527883</v>
+        <v>1197.248902574124</v>
       </c>
       <c r="AD5" t="n">
-        <v>896288.7961759741</v>
+        <v>967348.1494054946</v>
       </c>
       <c r="AE5" t="n">
-        <v>1226341.872398959</v>
+        <v>1323568.414405002</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.555038391954307e-06</v>
+        <v>2.675414329970775e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.35720486111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>1109301.52527883</v>
+        <v>1197248.902574124</v>
       </c>
     </row>
     <row r="6">
@@ -8317,28 +8317,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>829.3396747044388</v>
+        <v>900.4842792799797</v>
       </c>
       <c r="AB6" t="n">
-        <v>1134.739130814818</v>
+        <v>1232.082317473511</v>
       </c>
       <c r="AC6" t="n">
-        <v>1026.441220786224</v>
+        <v>1114.494110332231</v>
       </c>
       <c r="AD6" t="n">
-        <v>829339.6747044389</v>
+        <v>900484.2792799796</v>
       </c>
       <c r="AE6" t="n">
-        <v>1134739.130814818</v>
+        <v>1232082.317473511</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.607874855844421e-06</v>
+        <v>2.766318473153335e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.91883680555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>1026441.220786224</v>
+        <v>1114494.110332231</v>
       </c>
     </row>
     <row r="7">
@@ -8423,28 +8423,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>788.131596752321</v>
+        <v>859.2762013278618</v>
       </c>
       <c r="AB7" t="n">
-        <v>1078.356420588638</v>
+        <v>1175.69960724733</v>
       </c>
       <c r="AC7" t="n">
-        <v>975.4395972903991</v>
+        <v>1063.492486836406</v>
       </c>
       <c r="AD7" t="n">
-        <v>788131.596752321</v>
+        <v>859276.2013278619</v>
       </c>
       <c r="AE7" t="n">
-        <v>1078356.420588638</v>
+        <v>1175699.60724733</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.641376236934166e-06</v>
+        <v>2.82395696973648e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.65625</v>
       </c>
       <c r="AH7" t="n">
-        <v>975439.5972903991</v>
+        <v>1063492.486836406</v>
       </c>
     </row>
     <row r="8">
@@ -8529,28 +8529,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>750.4294676628729</v>
+        <v>811.3984552569489</v>
       </c>
       <c r="AB8" t="n">
-        <v>1026.770704267909</v>
+        <v>1110.191162856023</v>
       </c>
       <c r="AC8" t="n">
-        <v>928.7771493343135</v>
+        <v>1004.236076436126</v>
       </c>
       <c r="AD8" t="n">
-        <v>750429.4676628729</v>
+        <v>811398.4552569488</v>
       </c>
       <c r="AE8" t="n">
-        <v>1026770.704267909</v>
+        <v>1110191.162856023</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.670283142903032e-06</v>
+        <v>2.873690758216793e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.43706597222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>928777.1493343136</v>
+        <v>1004236.076436126</v>
       </c>
     </row>
     <row r="9">
@@ -8635,28 +8635,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>727.7701431948842</v>
+        <v>788.7391307889602</v>
       </c>
       <c r="AB9" t="n">
-        <v>995.767216871964</v>
+        <v>1079.187675460078</v>
       </c>
       <c r="AC9" t="n">
-        <v>900.7325912617694</v>
+        <v>976.1915183635823</v>
       </c>
       <c r="AD9" t="n">
-        <v>727770.1431948842</v>
+        <v>788739.1307889603</v>
       </c>
       <c r="AE9" t="n">
-        <v>995767.216871964</v>
+        <v>1079187.675460078</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.68483231411915e-06</v>
+        <v>2.898722333875759e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.32855902777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>900732.5912617694</v>
+        <v>976191.5183635823</v>
       </c>
     </row>
     <row r="10">
@@ -8741,28 +8741,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>727.8138139336228</v>
+        <v>788.7828015276988</v>
       </c>
       <c r="AB10" t="n">
-        <v>995.8269691033232</v>
+        <v>1079.247427691437</v>
       </c>
       <c r="AC10" t="n">
-        <v>900.7866408240305</v>
+        <v>976.2455679258434</v>
       </c>
       <c r="AD10" t="n">
-        <v>727813.8139336228</v>
+        <v>788782.8015276988</v>
       </c>
       <c r="AE10" t="n">
-        <v>995826.9691033232</v>
+        <v>1079247.427691437</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.687225269911275e-06</v>
+        <v>2.902839369345984e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.31119791666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>900786.6408240305</v>
+        <v>976245.5679258434</v>
       </c>
     </row>
   </sheetData>
@@ -9038,28 +9038,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>497.4540933063205</v>
+        <v>557.7764216867695</v>
       </c>
       <c r="AB2" t="n">
-        <v>680.6386365874255</v>
+        <v>763.1743075108634</v>
       </c>
       <c r="AC2" t="n">
-        <v>615.6794403938469</v>
+        <v>690.3380227238937</v>
       </c>
       <c r="AD2" t="n">
-        <v>497454.0933063205</v>
+        <v>557776.4216867695</v>
       </c>
       <c r="AE2" t="n">
-        <v>680638.6365874255</v>
+        <v>763174.3075108634</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.80762113013986e-06</v>
+        <v>3.623666455507371e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.75217013888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>615679.4403938469</v>
+        <v>690338.0227238936</v>
       </c>
     </row>
     <row r="3">
@@ -9144,28 +9144,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>494.3160371158627</v>
+        <v>554.6383654963117</v>
       </c>
       <c r="AB3" t="n">
-        <v>676.3450096663728</v>
+        <v>758.8806805898107</v>
       </c>
       <c r="AC3" t="n">
-        <v>611.7955911999964</v>
+        <v>686.4541735300431</v>
       </c>
       <c r="AD3" t="n">
-        <v>494316.0371158627</v>
+        <v>554638.3654963117</v>
       </c>
       <c r="AE3" t="n">
-        <v>676345.0096663728</v>
+        <v>758880.6805898107</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.821367298429897e-06</v>
+        <v>3.651222854408568e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.64800347222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>611795.5911999963</v>
+        <v>686454.1735300431</v>
       </c>
     </row>
   </sheetData>
@@ -9441,28 +9441,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1560.33366363723</v>
+        <v>1658.47618108038</v>
       </c>
       <c r="AB2" t="n">
-        <v>2134.917355651422</v>
+        <v>2269.20027775943</v>
       </c>
       <c r="AC2" t="n">
-        <v>1931.163839603377</v>
+        <v>2052.630988092663</v>
       </c>
       <c r="AD2" t="n">
-        <v>1560333.66363723</v>
+        <v>1658476.18108038</v>
       </c>
       <c r="AE2" t="n">
-        <v>2134917.355651422</v>
+        <v>2269200.27775943</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.091661563991356e-06</v>
+        <v>1.93341374781522e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.78298611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1931163.839603377</v>
+        <v>2052630.988092663</v>
       </c>
     </row>
     <row r="3">
@@ -9547,28 +9547,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>941.4729973677202</v>
+        <v>1019.901670467668</v>
       </c>
       <c r="AB3" t="n">
-        <v>1288.164889855776</v>
+        <v>1395.474460419985</v>
       </c>
       <c r="AC3" t="n">
-        <v>1165.224240718718</v>
+        <v>1262.292336478208</v>
       </c>
       <c r="AD3" t="n">
-        <v>941472.9973677201</v>
+        <v>1019901.670467668</v>
       </c>
       <c r="AE3" t="n">
-        <v>1288164.889855776</v>
+        <v>1395474.460419985</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.473394814626802e-06</v>
+        <v>2.609491700105028e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.65711805555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1165224.240718718</v>
+        <v>1262292.336478207</v>
       </c>
     </row>
     <row r="4">
@@ -9653,28 +9653,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>797.382363707653</v>
+        <v>865.9115337172653</v>
       </c>
       <c r="AB4" t="n">
-        <v>1091.013728051958</v>
+        <v>1184.778361752717</v>
       </c>
       <c r="AC4" t="n">
-        <v>986.8889090940626</v>
+        <v>1071.704777753911</v>
       </c>
       <c r="AD4" t="n">
-        <v>797382.363707653</v>
+        <v>865911.5337172654</v>
       </c>
       <c r="AE4" t="n">
-        <v>1091013.728051958</v>
+        <v>1184778.361752717</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.613708652842646e-06</v>
+        <v>2.857997933871615e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.38324652777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>986888.9090940625</v>
+        <v>1071704.777753911</v>
       </c>
     </row>
     <row r="5">
@@ -9759,28 +9759,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>718.7103453429137</v>
+        <v>787.3247666985467</v>
       </c>
       <c r="AB5" t="n">
-        <v>983.3712017608253</v>
+        <v>1077.252480114234</v>
       </c>
       <c r="AC5" t="n">
-        <v>889.5196344349214</v>
+        <v>974.4410153454824</v>
       </c>
       <c r="AD5" t="n">
-        <v>718710.3453429136</v>
+        <v>787324.7666985467</v>
       </c>
       <c r="AE5" t="n">
-        <v>983371.2017608254</v>
+        <v>1077252.480114234</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.685756325798867e-06</v>
+        <v>2.985599716316303e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.81032986111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>889519.6344349214</v>
+        <v>974441.0153454824</v>
       </c>
     </row>
     <row r="6">
@@ -9865,28 +9865,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>669.3622691175156</v>
+        <v>728.1625282373847</v>
       </c>
       <c r="AB6" t="n">
-        <v>915.8509867857636</v>
+        <v>996.3040953979196</v>
       </c>
       <c r="AC6" t="n">
-        <v>828.4434540118626</v>
+        <v>901.2182308547216</v>
       </c>
       <c r="AD6" t="n">
-        <v>669362.2691175155</v>
+        <v>728162.5282373846</v>
       </c>
       <c r="AE6" t="n">
-        <v>915850.9867857635</v>
+        <v>996304.0953979195</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.728945124228425e-06</v>
+        <v>3.06209028756077e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.49131944444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>828443.4540118626</v>
+        <v>901218.2308547216</v>
       </c>
     </row>
     <row r="7">
@@ -9971,28 +9971,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>659.1076264932016</v>
+        <v>717.9078856130708</v>
       </c>
       <c r="AB7" t="n">
-        <v>901.8201323442737</v>
+        <v>982.2732409564296</v>
       </c>
       <c r="AC7" t="n">
-        <v>815.7516846258408</v>
+        <v>888.5264614686996</v>
       </c>
       <c r="AD7" t="n">
-        <v>659107.6264932016</v>
+        <v>717907.8856130708</v>
       </c>
       <c r="AE7" t="n">
-        <v>901820.1323442737</v>
+        <v>982273.2409564296</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.738896460272101e-06</v>
+        <v>3.079714843147052e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.41970486111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>815751.6846258407</v>
+        <v>888526.4614686996</v>
       </c>
     </row>
     <row r="8">
@@ -10077,28 +10077,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>662.0137156643724</v>
+        <v>720.8139747842415</v>
       </c>
       <c r="AB8" t="n">
-        <v>905.7963717558754</v>
+        <v>986.2494803680313</v>
       </c>
       <c r="AC8" t="n">
-        <v>819.3484373286863</v>
+        <v>892.1232141715451</v>
       </c>
       <c r="AD8" t="n">
-        <v>662013.7156643724</v>
+        <v>720813.9747842415</v>
       </c>
       <c r="AE8" t="n">
-        <v>905796.3717558754</v>
+        <v>986249.4803680313</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.739394027074285e-06</v>
+        <v>3.080596070926367e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.41536458333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>819348.4373286862</v>
+        <v>892123.2141715451</v>
       </c>
     </row>
   </sheetData>
@@ -10374,28 +10374,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1885.14172809848</v>
+        <v>1994.99524452997</v>
       </c>
       <c r="AB2" t="n">
-        <v>2579.33407896778</v>
+        <v>2729.640506544448</v>
       </c>
       <c r="AC2" t="n">
-        <v>2333.166054589211</v>
+        <v>2469.127447674358</v>
       </c>
       <c r="AD2" t="n">
-        <v>1885141.72809848</v>
+        <v>1994995.24452997</v>
       </c>
       <c r="AE2" t="n">
-        <v>2579334.07896778</v>
+        <v>2729640.506544448</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.873180842058981e-07</v>
+        <v>1.721796527025525e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.43229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2333166.054589211</v>
+        <v>2469127.447674358</v>
       </c>
     </row>
     <row r="3">
@@ -10480,28 +10480,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1069.624201492328</v>
+        <v>1149.471142842341</v>
       </c>
       <c r="AB3" t="n">
-        <v>1463.507020971177</v>
+        <v>1572.757128724705</v>
       </c>
       <c r="AC3" t="n">
-        <v>1323.831964934692</v>
+        <v>1422.655395737712</v>
       </c>
       <c r="AD3" t="n">
-        <v>1069624.201492328</v>
+        <v>1149471.142842341</v>
       </c>
       <c r="AE3" t="n">
-        <v>1463507.020971177</v>
+        <v>1572757.128724705</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.391274120435904e-06</v>
+        <v>2.426260581090976e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.20833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1323831.964934692</v>
+        <v>1422655.395737712</v>
       </c>
     </row>
     <row r="4">
@@ -10586,28 +10586,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>891.5521100607521</v>
+        <v>961.5674519175313</v>
       </c>
       <c r="AB4" t="n">
-        <v>1219.860929488269</v>
+        <v>1315.659009075596</v>
       </c>
       <c r="AC4" t="n">
-        <v>1103.439114463475</v>
+        <v>1190.094359788437</v>
       </c>
       <c r="AD4" t="n">
-        <v>891552.110060752</v>
+        <v>961567.4519175313</v>
       </c>
       <c r="AE4" t="n">
-        <v>1219860.929488268</v>
+        <v>1315659.009075596</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.539479086660767e-06</v>
+        <v>2.684717101047405e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.74565972222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1103439.114463475</v>
+        <v>1190094.359788437</v>
       </c>
     </row>
     <row r="5">
@@ -10692,28 +10692,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>813.0280372898076</v>
+        <v>873.0412769613124</v>
       </c>
       <c r="AB5" t="n">
-        <v>1112.420828885465</v>
+        <v>1194.533591001295</v>
       </c>
       <c r="AC5" t="n">
-        <v>1006.252946269075</v>
+        <v>1080.528981614555</v>
       </c>
       <c r="AD5" t="n">
-        <v>813028.0372898076</v>
+        <v>873041.2769613124</v>
       </c>
       <c r="AE5" t="n">
-        <v>1112420.828885465</v>
+        <v>1194533.591001295</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.618456733135858e-06</v>
+        <v>2.822447220234712e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.07508680555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>1006252.946269075</v>
+        <v>1080528.981614555</v>
       </c>
     </row>
     <row r="6">
@@ -10798,28 +10798,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>750.6978737115395</v>
+        <v>820.6278747137472</v>
       </c>
       <c r="AB6" t="n">
-        <v>1027.137949264934</v>
+        <v>1122.819261730064</v>
       </c>
       <c r="AC6" t="n">
-        <v>929.109344984254</v>
+        <v>1015.658967277277</v>
       </c>
       <c r="AD6" t="n">
-        <v>750697.8737115395</v>
+        <v>820627.8747137473</v>
       </c>
       <c r="AE6" t="n">
-        <v>1027137.949264934</v>
+        <v>1122819.261730064</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.667208366762458e-06</v>
+        <v>2.907465812325642e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.69097222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>929109.344984254</v>
+        <v>1015658.967277277</v>
       </c>
     </row>
     <row r="7">
@@ -10904,28 +10904,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>708.0965428165393</v>
+        <v>768.0244416334724</v>
       </c>
       <c r="AB7" t="n">
-        <v>968.8489288963196</v>
+        <v>1050.844923889951</v>
       </c>
       <c r="AC7" t="n">
-        <v>876.3833469104662</v>
+        <v>950.5537592240074</v>
       </c>
       <c r="AD7" t="n">
-        <v>708096.5428165393</v>
+        <v>768024.4416334725</v>
       </c>
       <c r="AE7" t="n">
-        <v>968848.9288963197</v>
+        <v>1050844.923889951</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.700944497232065e-06</v>
+        <v>2.966298678052566e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.43923611111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>876383.3469104662</v>
+        <v>950553.7592240074</v>
       </c>
     </row>
     <row r="8">
@@ -11010,28 +11010,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>692.2737155926379</v>
+        <v>752.201614409571</v>
       </c>
       <c r="AB8" t="n">
-        <v>947.1994386347069</v>
+        <v>1029.195433628339</v>
       </c>
       <c r="AC8" t="n">
-        <v>856.8000536141714</v>
+        <v>930.9704659277126</v>
       </c>
       <c r="AD8" t="n">
-        <v>692273.7155926379</v>
+        <v>752201.614409571</v>
       </c>
       <c r="AE8" t="n">
-        <v>947199.4386347069</v>
+        <v>1029195.433628339</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.711474850095411e-06</v>
+        <v>2.984662693944208e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.36328125</v>
       </c>
       <c r="AH8" t="n">
-        <v>856800.0536141713</v>
+        <v>930970.4659277125</v>
       </c>
     </row>
     <row r="9">
@@ -11116,28 +11116,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>695.5945105432295</v>
+        <v>755.5224093601627</v>
       </c>
       <c r="AB9" t="n">
-        <v>951.7430967892399</v>
+        <v>1033.739091782871</v>
       </c>
       <c r="AC9" t="n">
-        <v>860.9100714115</v>
+        <v>935.0804837250412</v>
       </c>
       <c r="AD9" t="n">
-        <v>695594.5105432295</v>
+        <v>755522.4093601627</v>
       </c>
       <c r="AE9" t="n">
-        <v>951743.0967892399</v>
+        <v>1033739.091782871</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.710694823957385e-06</v>
+        <v>2.983302396470752e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.36979166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>860910.0714115</v>
+        <v>935080.4837250412</v>
       </c>
     </row>
   </sheetData>
@@ -11413,28 +11413,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2718.827793115801</v>
+        <v>2853.043730125251</v>
       </c>
       <c r="AB2" t="n">
-        <v>3720.020132758106</v>
+        <v>3903.660298963689</v>
       </c>
       <c r="AC2" t="n">
-        <v>3364.986632368579</v>
+        <v>3531.100438852087</v>
       </c>
       <c r="AD2" t="n">
-        <v>2718827.793115801</v>
+        <v>2853043.730125251</v>
       </c>
       <c r="AE2" t="n">
-        <v>3720020.132758106</v>
+        <v>3903660.298963689</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.053198498005721e-07</v>
+        <v>1.368990370977581e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.36241319444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>3364986.632368579</v>
+        <v>3531100.438852087</v>
       </c>
     </row>
     <row r="3">
@@ -11519,28 +11519,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1342.353757192349</v>
+        <v>1424.967908437123</v>
       </c>
       <c r="AB3" t="n">
-        <v>1836.667631058768</v>
+        <v>1949.703957470993</v>
       </c>
       <c r="AC3" t="n">
-        <v>1661.378650129729</v>
+        <v>1763.626948196651</v>
       </c>
       <c r="AD3" t="n">
-        <v>1342353.757192349</v>
+        <v>1424967.908437123</v>
       </c>
       <c r="AE3" t="n">
-        <v>1836667.631058768</v>
+        <v>1949703.957470993</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.240495610637062e-06</v>
+        <v>2.10876032252606e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.46484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1661378.650129729</v>
+        <v>1763626.948196651</v>
       </c>
     </row>
     <row r="4">
@@ -11625,28 +11625,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1091.877624623409</v>
+        <v>1164.324942744926</v>
       </c>
       <c r="AB4" t="n">
-        <v>1493.955136250861</v>
+        <v>1593.080753054824</v>
       </c>
       <c r="AC4" t="n">
-        <v>1351.374154826281</v>
+        <v>1441.03936188615</v>
       </c>
       <c r="AD4" t="n">
-        <v>1091877.624623409</v>
+        <v>1164324.942744926</v>
       </c>
       <c r="AE4" t="n">
-        <v>1493955.136250861</v>
+        <v>1593080.753054824</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.407262792341703e-06</v>
+        <v>2.39225347869905e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.51388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1351374.154826281</v>
+        <v>1441039.36188615</v>
       </c>
     </row>
     <row r="5">
@@ -11731,28 +11731,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>978.8143605089186</v>
+        <v>1051.176337775864</v>
       </c>
       <c r="AB5" t="n">
-        <v>1339.256990290239</v>
+        <v>1438.265839972004</v>
       </c>
       <c r="AC5" t="n">
-        <v>1211.440182795929</v>
+        <v>1300.999766823859</v>
       </c>
       <c r="AD5" t="n">
-        <v>978814.3605089186</v>
+        <v>1051176.337775864</v>
       </c>
       <c r="AE5" t="n">
-        <v>1339256.990290239</v>
+        <v>1438265.839972004</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.496951914330712e-06</v>
+        <v>2.544719041810144e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.64366319444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>1211440.182795929</v>
+        <v>1300999.766823859</v>
       </c>
     </row>
     <row r="6">
@@ -11837,28 +11837,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>917.8041651375729</v>
+        <v>979.8288065892201</v>
       </c>
       <c r="AB6" t="n">
-        <v>1255.780149403306</v>
+        <v>1340.64500017151</v>
       </c>
       <c r="AC6" t="n">
-        <v>1135.930254442763</v>
+        <v>1212.695722962216</v>
       </c>
       <c r="AD6" t="n">
-        <v>917804.1651375729</v>
+        <v>979828.8065892201</v>
       </c>
       <c r="AE6" t="n">
-        <v>1255780.149403306</v>
+        <v>1340645.00017151</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.552478233295575e-06</v>
+        <v>2.639110103967065e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.15538194444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>1135930.254442763</v>
+        <v>1212695.722962216</v>
       </c>
     </row>
     <row r="7">
@@ -11943,28 +11943,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>864.5502954108715</v>
+        <v>936.8269318232452</v>
       </c>
       <c r="AB7" t="n">
-        <v>1182.915855448313</v>
+        <v>1281.80793800788</v>
       </c>
       <c r="AC7" t="n">
-        <v>1070.020026437156</v>
+        <v>1159.473987433147</v>
       </c>
       <c r="AD7" t="n">
-        <v>864550.2954108715</v>
+        <v>936826.9318232452</v>
       </c>
       <c r="AE7" t="n">
-        <v>1182915.855448313</v>
+        <v>1281807.93800788</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.5891820712554e-06</v>
+        <v>2.701504195901301e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.8515625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1070020.026437156</v>
+        <v>1159473.987433147</v>
       </c>
     </row>
     <row r="8">
@@ -12049,28 +12049,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>826.9053861785907</v>
+        <v>899.1820225909648</v>
       </c>
       <c r="AB8" t="n">
-        <v>1131.408429860523</v>
+        <v>1230.30051242009</v>
       </c>
       <c r="AC8" t="n">
-        <v>1023.428397256338</v>
+        <v>1112.88235825233</v>
       </c>
       <c r="AD8" t="n">
-        <v>826905.3861785907</v>
+        <v>899182.0225909648</v>
       </c>
       <c r="AE8" t="n">
-        <v>1131408.429860523</v>
+        <v>1230300.51242009</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.618733366433311e-06</v>
+        <v>2.751739439150917e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.6171875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1023428.397256338</v>
+        <v>1112882.35825233</v>
       </c>
     </row>
     <row r="9">
@@ -12155,28 +12155,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>796.4390535387789</v>
+        <v>858.3783541358542</v>
       </c>
       <c r="AB9" t="n">
-        <v>1089.723049462996</v>
+        <v>1174.471133109002</v>
       </c>
       <c r="AC9" t="n">
-        <v>985.7214110581532</v>
+        <v>1062.381256545667</v>
       </c>
       <c r="AD9" t="n">
-        <v>796439.0535387789</v>
+        <v>858378.3541358543</v>
       </c>
       <c r="AE9" t="n">
-        <v>1089723.049462996</v>
+        <v>1174471.133109003</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.639343983133828e-06</v>
+        <v>2.786776121544756e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.45876736111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>985721.4110581531</v>
+        <v>1062381.256545667</v>
       </c>
     </row>
     <row r="10">
@@ -12261,28 +12261,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>769.0030792209254</v>
+        <v>830.942379818001</v>
       </c>
       <c r="AB10" t="n">
-        <v>1052.183939011548</v>
+        <v>1136.932022657554</v>
       </c>
       <c r="AC10" t="n">
-        <v>951.7649806217181</v>
+        <v>1028.424826109232</v>
       </c>
       <c r="AD10" t="n">
-        <v>769003.0792209255</v>
+        <v>830942.3798180009</v>
       </c>
       <c r="AE10" t="n">
-        <v>1052183.939011548</v>
+        <v>1136932.022657554</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.656378328443388e-06</v>
+        <v>2.815733379596287e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.33072916666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>951764.9806217181</v>
+        <v>1028424.826109232</v>
       </c>
     </row>
     <row r="11">
@@ -12367,28 +12367,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>760.7696797909205</v>
+        <v>822.708980387996</v>
       </c>
       <c r="AB11" t="n">
-        <v>1040.918638679468</v>
+        <v>1125.666722325474</v>
       </c>
       <c r="AC11" t="n">
-        <v>941.5748247423836</v>
+        <v>1018.234670229897</v>
       </c>
       <c r="AD11" t="n">
-        <v>760769.6797909205</v>
+        <v>822708.980387996</v>
       </c>
       <c r="AE11" t="n">
-        <v>1040918.638679468</v>
+        <v>1125666.722325474</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.65986048742932e-06</v>
+        <v>2.821652819087483e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.3046875</v>
       </c>
       <c r="AH11" t="n">
-        <v>941574.8247423836</v>
+        <v>1018234.670229897</v>
       </c>
     </row>
     <row r="12">
@@ -12473,28 +12473,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>762.1361394307604</v>
+        <v>824.0754400278358</v>
       </c>
       <c r="AB12" t="n">
-        <v>1042.788289042641</v>
+        <v>1127.536372688647</v>
       </c>
       <c r="AC12" t="n">
-        <v>943.2660382989665</v>
+        <v>1019.92588378648</v>
       </c>
       <c r="AD12" t="n">
-        <v>762136.1394307604</v>
+        <v>824075.4400278359</v>
       </c>
       <c r="AE12" t="n">
-        <v>1042788.289042641</v>
+        <v>1127536.372688647</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.662119185149924e-06</v>
+        <v>2.825492455514205e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.28732638888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>943266.0382989665</v>
+        <v>1019925.88378648</v>
       </c>
     </row>
   </sheetData>
@@ -12770,28 +12770,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1284.52392200319</v>
+        <v>1370.911987907555</v>
       </c>
       <c r="AB2" t="n">
-        <v>1757.542299280692</v>
+        <v>1875.742262223533</v>
       </c>
       <c r="AC2" t="n">
-        <v>1589.804928963452</v>
+        <v>1696.724053337718</v>
       </c>
       <c r="AD2" t="n">
-        <v>1284523.92200319</v>
+        <v>1370911.987907555</v>
       </c>
       <c r="AE2" t="n">
-        <v>1757542.299280692</v>
+        <v>1875742.262223533</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.210073962627025e-06</v>
+        <v>2.182049706449423e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.25954861111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1589804.928963452</v>
+        <v>1696724.053337718</v>
       </c>
     </row>
     <row r="3">
@@ -12876,28 +12876,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>825.5030829334687</v>
+        <v>892.6748561155263</v>
       </c>
       <c r="AB3" t="n">
-        <v>1129.489736695294</v>
+        <v>1221.397120172471</v>
       </c>
       <c r="AC3" t="n">
-        <v>1021.692821473896</v>
+        <v>1104.828693264834</v>
       </c>
       <c r="AD3" t="n">
-        <v>825503.0829334687</v>
+        <v>892674.8561155263</v>
       </c>
       <c r="AE3" t="n">
-        <v>1129489.736695294</v>
+        <v>1221397.120172471</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.565307286615724e-06</v>
+        <v>2.822619451994399e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.11458333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1021692.821473896</v>
+        <v>1104828.693264834</v>
       </c>
     </row>
     <row r="4">
@@ -12982,28 +12982,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>702.9930775729135</v>
+        <v>760.6420452483883</v>
       </c>
       <c r="AB4" t="n">
-        <v>961.8661426009945</v>
+        <v>1040.744003467537</v>
       </c>
       <c r="AC4" t="n">
-        <v>870.0669879387649</v>
+        <v>941.4168564699772</v>
       </c>
       <c r="AD4" t="n">
-        <v>702993.0775729135</v>
+        <v>760642.0452483883</v>
       </c>
       <c r="AE4" t="n">
-        <v>961866.1426009946</v>
+        <v>1040744.003467537</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.695223515165332e-06</v>
+        <v>3.056889155438191e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.03385416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>870066.9879387649</v>
+        <v>941416.8564699772</v>
       </c>
     </row>
     <row r="5">
@@ -13088,28 +13088,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>630.7196075293027</v>
+        <v>697.891291202809</v>
       </c>
       <c r="AB5" t="n">
-        <v>862.9783924068597</v>
+        <v>954.885653414488</v>
       </c>
       <c r="AC5" t="n">
-        <v>780.6169458333293</v>
+        <v>863.7527068430404</v>
       </c>
       <c r="AD5" t="n">
-        <v>630719.6075293027</v>
+        <v>697891.2912028091</v>
       </c>
       <c r="AE5" t="n">
-        <v>862978.3924068597</v>
+        <v>954885.6534144881</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.760487075118543e-06</v>
+        <v>3.174574797998905e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.54991319444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>780616.9458333292</v>
+        <v>863752.7068430404</v>
       </c>
     </row>
     <row r="6">
@@ -13194,28 +13194,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>625.3074623791006</v>
+        <v>683.0416814005962</v>
       </c>
       <c r="AB6" t="n">
-        <v>855.5732566453605</v>
+        <v>934.5677621645517</v>
       </c>
       <c r="AC6" t="n">
-        <v>773.9185458357341</v>
+        <v>845.3739266176585</v>
       </c>
       <c r="AD6" t="n">
-        <v>625307.4623791006</v>
+        <v>683041.6814005962</v>
       </c>
       <c r="AE6" t="n">
-        <v>855573.2566453605</v>
+        <v>934567.7621645518</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.766901434365115e-06</v>
+        <v>3.186141405614076e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.50434027777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>773918.5458357341</v>
+        <v>845373.9266176586</v>
       </c>
     </row>
   </sheetData>
@@ -13491,28 +13491,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>926.1829420339734</v>
+        <v>1000.111454683763</v>
       </c>
       <c r="AB2" t="n">
-        <v>1267.24436159851</v>
+        <v>1368.396614101745</v>
       </c>
       <c r="AC2" t="n">
-        <v>1146.300338316179</v>
+        <v>1237.798761808584</v>
       </c>
       <c r="AD2" t="n">
-        <v>926182.9420339734</v>
+        <v>1000111.454683763</v>
       </c>
       <c r="AE2" t="n">
-        <v>1267244.36159851</v>
+        <v>1368396.614101745</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.418734055949952e-06</v>
+        <v>2.646904260364628e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.22178819444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1146300.338316179</v>
+        <v>1237798.761808584</v>
       </c>
     </row>
     <row r="3">
@@ -13597,28 +13597,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>637.2850319789003</v>
+        <v>701.8764832746419</v>
       </c>
       <c r="AB3" t="n">
-        <v>871.9614957848838</v>
+        <v>960.3383690214357</v>
       </c>
       <c r="AC3" t="n">
-        <v>788.7427144328194</v>
+        <v>868.6850229253954</v>
       </c>
       <c r="AD3" t="n">
-        <v>637285.0319789003</v>
+        <v>701876.4832746419</v>
       </c>
       <c r="AE3" t="n">
-        <v>871961.4957848839</v>
+        <v>960338.3690214357</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.730543738576314e-06</v>
+        <v>3.228641460444765e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.29861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>788742.7144328194</v>
+        <v>868685.0229253954</v>
       </c>
     </row>
     <row r="4">
@@ -13703,28 +13703,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>568.1327141163167</v>
+        <v>632.8094167580788</v>
       </c>
       <c r="AB4" t="n">
-        <v>777.3442437003464</v>
+        <v>865.8377615895477</v>
       </c>
       <c r="AC4" t="n">
-        <v>703.1556000910829</v>
+        <v>783.2034208343712</v>
       </c>
       <c r="AD4" t="n">
-        <v>568132.7141163168</v>
+        <v>632809.4167580787</v>
       </c>
       <c r="AE4" t="n">
-        <v>777344.2437003464</v>
+        <v>865837.7615895476</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.807753755226652e-06</v>
+        <v>3.372690671893181e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.73220486111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>703155.6000910829</v>
+        <v>783203.4208343711</v>
       </c>
     </row>
     <row r="5">
@@ -13809,28 +13809,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>571.9536542863198</v>
+        <v>636.6303569280818</v>
       </c>
       <c r="AB5" t="n">
-        <v>782.5722226089279</v>
+        <v>871.065740498129</v>
       </c>
       <c r="AC5" t="n">
-        <v>707.8846280301436</v>
+        <v>787.9324487734319</v>
       </c>
       <c r="AD5" t="n">
-        <v>571953.6542863197</v>
+        <v>636630.3569280818</v>
       </c>
       <c r="AE5" t="n">
-        <v>782572.2226089279</v>
+        <v>871065.740498129</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.807117408935578e-06</v>
+        <v>3.371503453117507e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.73654513888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>707884.6280301437</v>
+        <v>787932.4487734319</v>
       </c>
     </row>
   </sheetData>
@@ -24991,28 +24991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>703.3294594390495</v>
+        <v>774.9786997564195</v>
       </c>
       <c r="AB2" t="n">
-        <v>962.3263951103625</v>
+        <v>1060.360046653983</v>
       </c>
       <c r="AC2" t="n">
-        <v>870.4833145946071</v>
+        <v>959.1607720259984</v>
       </c>
       <c r="AD2" t="n">
-        <v>703329.4594390495</v>
+        <v>774978.6997564195</v>
       </c>
       <c r="AE2" t="n">
-        <v>962326.3951103624</v>
+        <v>1060360.046653983</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.593344810605369e-06</v>
+        <v>3.064061157768102e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.94140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>870483.3145946071</v>
+        <v>959160.7720259984</v>
       </c>
     </row>
     <row r="3">
@@ -25097,28 +25097,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>536.3359291480053</v>
+        <v>590.1369545355125</v>
       </c>
       <c r="AB3" t="n">
-        <v>733.838479731553</v>
+        <v>807.4514162004648</v>
       </c>
       <c r="AC3" t="n">
-        <v>663.8019651747477</v>
+        <v>730.3893863034718</v>
       </c>
       <c r="AD3" t="n">
-        <v>536335.9291480053</v>
+        <v>590136.9545355125</v>
       </c>
       <c r="AE3" t="n">
-        <v>733838.479731553</v>
+        <v>807451.4162004648</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.827798977118051e-06</v>
+        <v>3.514925214378336e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.02517361111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>663801.9651747477</v>
+        <v>730389.3863034719</v>
       </c>
     </row>
     <row r="4">
@@ -25203,28 +25203,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>539.6297177150708</v>
+        <v>593.430743102578</v>
       </c>
       <c r="AB4" t="n">
-        <v>738.345186560708</v>
+        <v>811.9581230296199</v>
       </c>
       <c r="AC4" t="n">
-        <v>667.8785582293309</v>
+        <v>734.4659793580552</v>
       </c>
       <c r="AD4" t="n">
-        <v>539629.7177150708</v>
+        <v>593430.7431025781</v>
       </c>
       <c r="AE4" t="n">
-        <v>738345.1865607081</v>
+        <v>811958.1230296198</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.829444654468397e-06</v>
+        <v>3.518089912950706e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.01432291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>667878.5582293309</v>
+        <v>734465.9793580552</v>
       </c>
     </row>
   </sheetData>
@@ -25500,28 +25500,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>472.3842008638528</v>
+        <v>531.1134167685507</v>
       </c>
       <c r="AB2" t="n">
-        <v>646.3369037420445</v>
+        <v>726.6928078929977</v>
       </c>
       <c r="AC2" t="n">
-        <v>584.6514167884449</v>
+        <v>657.338266227451</v>
       </c>
       <c r="AD2" t="n">
-        <v>472384.2008638528</v>
+        <v>531113.4167685506</v>
       </c>
       <c r="AE2" t="n">
-        <v>646336.9037420445</v>
+        <v>726692.8078929977</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.788333859142237e-06</v>
+        <v>3.688616204236793e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.29036458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>584651.4167884449</v>
+        <v>657338.2662274509</v>
       </c>
     </row>
   </sheetData>
@@ -25797,28 +25797,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1715.01372512543</v>
+        <v>1823.940869942919</v>
       </c>
       <c r="AB2" t="n">
-        <v>2346.557439782275</v>
+        <v>2495.596364848037</v>
       </c>
       <c r="AC2" t="n">
-        <v>2122.605291143506</v>
+        <v>2257.420150378436</v>
       </c>
       <c r="AD2" t="n">
-        <v>1715013.72512543</v>
+        <v>1823940.869942919</v>
       </c>
       <c r="AE2" t="n">
-        <v>2346557.439782275</v>
+        <v>2495596.364848037</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.038731496650821e-06</v>
+        <v>1.825010263968371e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.57291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2122605.291143506</v>
+        <v>2257420.150378436</v>
       </c>
     </row>
     <row r="3">
@@ -25903,28 +25903,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1001.062568418169</v>
+        <v>1080.259035325097</v>
       </c>
       <c r="AB3" t="n">
-        <v>1369.697969873336</v>
+        <v>1478.058069796927</v>
       </c>
       <c r="AC3" t="n">
-        <v>1238.975918011799</v>
+        <v>1336.994282083037</v>
       </c>
       <c r="AD3" t="n">
-        <v>1001062.568418169</v>
+        <v>1080259.035325097</v>
       </c>
       <c r="AE3" t="n">
-        <v>1369697.969873336</v>
+        <v>1478058.069796927</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.430570008707478e-06</v>
+        <v>2.513455072494173e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.93923611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1238975.918011799</v>
+        <v>1336994.282083038</v>
       </c>
     </row>
     <row r="4">
@@ -26009,28 +26009,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>845.3447416053182</v>
+        <v>914.7163233966297</v>
       </c>
       <c r="AB4" t="n">
-        <v>1156.63796944232</v>
+        <v>1251.555228107384</v>
       </c>
       <c r="AC4" t="n">
-        <v>1046.25006499033</v>
+        <v>1132.10855370561</v>
       </c>
       <c r="AD4" t="n">
-        <v>845344.7416053182</v>
+        <v>914716.3233966298</v>
       </c>
       <c r="AE4" t="n">
-        <v>1156637.96944232</v>
+        <v>1251555.228107384</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.575133702022173e-06</v>
+        <v>2.76744777893194e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.56770833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1046250.06499033</v>
+        <v>1132108.55370561</v>
       </c>
     </row>
     <row r="5">
@@ -26115,28 +26115,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>760.7009360667437</v>
+        <v>829.9871770034837</v>
       </c>
       <c r="AB5" t="n">
-        <v>1040.82458048329</v>
+        <v>1135.625072026157</v>
       </c>
       <c r="AC5" t="n">
-        <v>941.4897433284375</v>
+        <v>1027.242609011779</v>
       </c>
       <c r="AD5" t="n">
-        <v>760700.9360667437</v>
+        <v>829987.1770034836</v>
       </c>
       <c r="AE5" t="n">
-        <v>1040824.58048329</v>
+        <v>1135625.072026157</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.651945473674395e-06</v>
+        <v>2.902403031671353e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.93619791666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>941489.7433284374</v>
+        <v>1027242.609011779</v>
       </c>
     </row>
     <row r="6">
@@ -26221,28 +26221,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>708.9974350658678</v>
+        <v>778.2836760026078</v>
       </c>
       <c r="AB6" t="n">
-        <v>970.0815694164119</v>
+        <v>1064.882060959279</v>
       </c>
       <c r="AC6" t="n">
-        <v>877.4983459493427</v>
+        <v>963.2512116326842</v>
       </c>
       <c r="AD6" t="n">
-        <v>708997.4350658677</v>
+        <v>778283.6760026078</v>
       </c>
       <c r="AE6" t="n">
-        <v>970081.5694164119</v>
+        <v>1064882.060959279</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.699214256229609e-06</v>
+        <v>2.98545241797253e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.57595486111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>877498.3459493427</v>
+        <v>963251.2116326842</v>
       </c>
     </row>
     <row r="7">
@@ -26327,28 +26327,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>677.7344428431236</v>
+        <v>737.1105473182272</v>
       </c>
       <c r="AB7" t="n">
-        <v>927.3061642313774</v>
+        <v>1008.547169863069</v>
       </c>
       <c r="AC7" t="n">
-        <v>838.8053653995095</v>
+        <v>912.2928434761805</v>
       </c>
       <c r="AD7" t="n">
-        <v>677734.4428431236</v>
+        <v>737110.5473182272</v>
       </c>
       <c r="AE7" t="n">
-        <v>927306.1642313773</v>
+        <v>1008547.169863069</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.722553217616246e-06</v>
+        <v>3.026458052458737e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.40668402777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>838805.3653995094</v>
+        <v>912292.8434761805</v>
       </c>
     </row>
     <row r="8">
@@ -26433,28 +26433,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>676.5917499500098</v>
+        <v>735.9678544251135</v>
       </c>
       <c r="AB8" t="n">
-        <v>925.7426814029667</v>
+        <v>1006.983687034659</v>
       </c>
       <c r="AC8" t="n">
-        <v>837.3910991778805</v>
+        <v>910.8785772545515</v>
       </c>
       <c r="AD8" t="n">
-        <v>676591.7499500097</v>
+        <v>735967.8544251135</v>
       </c>
       <c r="AE8" t="n">
-        <v>925742.6814029667</v>
+        <v>1006983.687034659</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.72678771272015e-06</v>
+        <v>3.033897893314884e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.37630208333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>837391.0991778806</v>
+        <v>910878.5772545515</v>
       </c>
     </row>
   </sheetData>
@@ -26730,28 +26730,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2486.243743534936</v>
+        <v>2609.253373457902</v>
       </c>
       <c r="AB2" t="n">
-        <v>3401.788375237457</v>
+        <v>3570.095577699936</v>
       </c>
       <c r="AC2" t="n">
-        <v>3077.126467144637</v>
+        <v>3229.370666424733</v>
       </c>
       <c r="AD2" t="n">
-        <v>2486243.743534936</v>
+        <v>2609253.373457903</v>
       </c>
       <c r="AE2" t="n">
-        <v>3401788.375237457</v>
+        <v>3570095.577699936</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.47129581372209e-07</v>
+        <v>1.448497177996612e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.30772569444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>3077126.467144636</v>
+        <v>3229370.666424733</v>
       </c>
     </row>
     <row r="3">
@@ -26836,28 +26836,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1272.669186598738</v>
+        <v>1354.647189432042</v>
       </c>
       <c r="AB3" t="n">
-        <v>1741.322127306306</v>
+        <v>1853.488047397069</v>
       </c>
       <c r="AC3" t="n">
-        <v>1575.132787437147</v>
+        <v>1676.593749540305</v>
       </c>
       <c r="AD3" t="n">
-        <v>1272669.186598738</v>
+        <v>1354647.189432042</v>
       </c>
       <c r="AE3" t="n">
-        <v>1741322.127306306</v>
+        <v>1853488.047397069</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.276720218189952e-06</v>
+        <v>2.183049292345291e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.13064236111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1575132.787437147</v>
+        <v>1676593.749540305</v>
       </c>
     </row>
     <row r="4">
@@ -26942,28 +26942,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1043.103815108198</v>
+        <v>1114.823911169086</v>
       </c>
       <c r="AB4" t="n">
-        <v>1427.220658323537</v>
+        <v>1525.351257821374</v>
       </c>
       <c r="AC4" t="n">
-        <v>1291.008721809913</v>
+        <v>1379.773874618838</v>
       </c>
       <c r="AD4" t="n">
-        <v>1043103.815108198</v>
+        <v>1114823.911169086</v>
       </c>
       <c r="AE4" t="n">
-        <v>1427220.658323537</v>
+        <v>1525351.257821374</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.438991035278165e-06</v>
+        <v>2.460514305717556e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.30989583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1291008.721809913</v>
+        <v>1379773.874618838</v>
       </c>
     </row>
     <row r="5">
@@ -27048,28 +27048,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>939.1866321031825</v>
+        <v>1010.991979510091</v>
       </c>
       <c r="AB5" t="n">
-        <v>1285.036584033519</v>
+        <v>1383.283828184005</v>
       </c>
       <c r="AC5" t="n">
-        <v>1162.394496013532</v>
+        <v>1251.265161073169</v>
       </c>
       <c r="AD5" t="n">
-        <v>939186.6321031825</v>
+        <v>1010991.979510091</v>
       </c>
       <c r="AE5" t="n">
-        <v>1285036.584033519</v>
+        <v>1383283.828184005</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.52392225240913e-06</v>
+        <v>2.605737222073215e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.51345486111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>1162394.496013532</v>
+        <v>1251265.161073169</v>
       </c>
     </row>
     <row r="6">
@@ -27154,28 +27154,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>879.8993686239461</v>
+        <v>941.4468987669906</v>
       </c>
       <c r="AB6" t="n">
-        <v>1203.917134571761</v>
+        <v>1288.129180598869</v>
       </c>
       <c r="AC6" t="n">
-        <v>1089.016972956542</v>
+        <v>1165.191939503171</v>
       </c>
       <c r="AD6" t="n">
-        <v>879899.3686239461</v>
+        <v>941446.8987669905</v>
       </c>
       <c r="AE6" t="n">
-        <v>1203917.134571761</v>
+        <v>1288129.180598869</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.578581896059896e-06</v>
+        <v>2.699199121314399e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.04470486111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>1089016.972956542</v>
+        <v>1165191.939503171</v>
       </c>
     </row>
     <row r="7">
@@ -27260,28 +27260,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>825.1655321926532</v>
+        <v>896.8855387449905</v>
       </c>
       <c r="AB7" t="n">
-        <v>1129.027884880023</v>
+        <v>1227.158361908311</v>
       </c>
       <c r="AC7" t="n">
-        <v>1021.275048147661</v>
+        <v>1110.040090175359</v>
       </c>
       <c r="AD7" t="n">
-        <v>825165.5321926533</v>
+        <v>896885.5387449905</v>
       </c>
       <c r="AE7" t="n">
-        <v>1129027.884880023</v>
+        <v>1227158.361908311</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.616634877143156e-06</v>
+        <v>2.764265478251403e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.73871527777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>1021275.048147661</v>
+        <v>1110040.090175359</v>
       </c>
     </row>
     <row r="8">
@@ -27366,28 +27366,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>790.6647496542774</v>
+        <v>862.3847562066147</v>
       </c>
       <c r="AB8" t="n">
-        <v>1081.822392143913</v>
+        <v>1179.952869172202</v>
       </c>
       <c r="AC8" t="n">
-        <v>978.5747813849611</v>
+        <v>1067.339823412659</v>
       </c>
       <c r="AD8" t="n">
-        <v>790664.7496542775</v>
+        <v>862384.7562066148</v>
       </c>
       <c r="AE8" t="n">
-        <v>1081822.392143913</v>
+        <v>1179952.869172202</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.64206679467511e-06</v>
+        <v>2.807751223037232e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.54123263888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>978574.7813849611</v>
+        <v>1067339.823412659</v>
       </c>
     </row>
     <row r="9">
@@ -27472,28 +27472,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>759.1835230067032</v>
+        <v>820.6457122951763</v>
       </c>
       <c r="AB9" t="n">
-        <v>1038.748388991003</v>
+        <v>1122.843667895913</v>
       </c>
       <c r="AC9" t="n">
-        <v>939.6117006382216</v>
+        <v>1015.681044152912</v>
       </c>
       <c r="AD9" t="n">
-        <v>759183.5230067032</v>
+        <v>820645.7122951762</v>
       </c>
       <c r="AE9" t="n">
-        <v>1038748.388991003</v>
+        <v>1122843.667895913</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.663323322761519e-06</v>
+        <v>2.844097517186581e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.38064236111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>939611.7006382216</v>
+        <v>1015681.044152912</v>
       </c>
     </row>
     <row r="10">
@@ -27578,28 +27578,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>744.4456765081752</v>
+        <v>805.9078657966479</v>
       </c>
       <c r="AB10" t="n">
-        <v>1018.583417223817</v>
+        <v>1102.678696128728</v>
       </c>
       <c r="AC10" t="n">
-        <v>921.3712454747804</v>
+        <v>997.4405889894711</v>
       </c>
       <c r="AD10" t="n">
-        <v>744445.6765081752</v>
+        <v>805907.865796648</v>
       </c>
       <c r="AE10" t="n">
-        <v>1018583.417223817</v>
+        <v>1102678.696128728</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.673192425087352e-06</v>
+        <v>2.860972582327351e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.30902777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>921371.2454747803</v>
+        <v>997440.5889894711</v>
       </c>
     </row>
     <row r="11">
@@ -27684,28 +27684,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>747.3913837517249</v>
+        <v>808.8535730401976</v>
       </c>
       <c r="AB11" t="n">
-        <v>1022.613863829874</v>
+        <v>1106.709142734784</v>
       </c>
       <c r="AC11" t="n">
-        <v>925.017031913522</v>
+        <v>1001.086375428213</v>
       </c>
       <c r="AD11" t="n">
-        <v>747391.3837517248</v>
+        <v>808853.5730401976</v>
       </c>
       <c r="AE11" t="n">
-        <v>1022613.863829874</v>
+        <v>1106709.142734784</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.672812844228666e-06</v>
+        <v>2.860323541360398e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.31119791666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>925017.031913522</v>
+        <v>1001086.375428213</v>
       </c>
     </row>
   </sheetData>
@@ -27981,28 +27981,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>451.5907960968436</v>
+        <v>516.6942238308217</v>
       </c>
       <c r="AB2" t="n">
-        <v>617.8864499995469</v>
+        <v>706.9638319857004</v>
       </c>
       <c r="AC2" t="n">
-        <v>558.9162344206686</v>
+        <v>639.4921960909544</v>
       </c>
       <c r="AD2" t="n">
-        <v>451590.7960968436</v>
+        <v>516694.2238308216</v>
       </c>
       <c r="AE2" t="n">
-        <v>617886.449999547</v>
+        <v>706963.8319857004</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.685138821692609e-06</v>
+        <v>3.6120286537547e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>558916.2344206686</v>
+        <v>639492.1960909544</v>
       </c>
     </row>
   </sheetData>
@@ -28278,28 +28278,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1033.581312259098</v>
+        <v>1117.900167180241</v>
       </c>
       <c r="AB2" t="n">
-        <v>1414.191549822222</v>
+        <v>1529.560327010673</v>
       </c>
       <c r="AC2" t="n">
-        <v>1279.223093137495</v>
+        <v>1383.581236152176</v>
       </c>
       <c r="AD2" t="n">
-        <v>1033581.312259098</v>
+        <v>1117900.167180241</v>
       </c>
       <c r="AE2" t="n">
-        <v>1414191.549822222</v>
+        <v>1529560.327010673</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.343604171109534e-06</v>
+        <v>2.475500039153684e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.87934027777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1279223.093137495</v>
+        <v>1383581.236152176</v>
       </c>
     </row>
     <row r="3">
@@ -28384,28 +28384,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>697.2661895199225</v>
+        <v>762.9138973454783</v>
       </c>
       <c r="AB3" t="n">
-        <v>954.0303617144228</v>
+        <v>1043.852451733816</v>
       </c>
       <c r="AC3" t="n">
-        <v>862.97904298242</v>
+        <v>944.2286387964572</v>
       </c>
       <c r="AD3" t="n">
-        <v>697266.1895199225</v>
+        <v>762913.8973454783</v>
       </c>
       <c r="AE3" t="n">
-        <v>954030.3617144228</v>
+        <v>1043852.451733816</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.672502920835865e-06</v>
+        <v>3.081473796404512e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.56119791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>862979.04298242</v>
+        <v>944228.6387964572</v>
       </c>
     </row>
     <row r="4">
@@ -28490,28 +28490,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>596.5945631946896</v>
+        <v>662.1569301656738</v>
       </c>
       <c r="AB4" t="n">
-        <v>816.2870012575382</v>
+        <v>905.9923241547335</v>
       </c>
       <c r="AC4" t="n">
-        <v>738.3817155235198</v>
+        <v>819.5256883056182</v>
       </c>
       <c r="AD4" t="n">
-        <v>596594.5631946896</v>
+        <v>662156.9301656737</v>
       </c>
       <c r="AE4" t="n">
-        <v>816287.0012575382</v>
+        <v>905992.3241547336</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.783808026796634e-06</v>
+        <v>3.286545944949835e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.71484375</v>
       </c>
       <c r="AH4" t="n">
-        <v>738381.7155235198</v>
+        <v>819525.6883056182</v>
       </c>
     </row>
     <row r="5">
@@ -28596,28 +28596,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>588.7697157742808</v>
+        <v>654.3320827452651</v>
       </c>
       <c r="AB5" t="n">
-        <v>805.5806998090303</v>
+        <v>895.2860227062258</v>
       </c>
       <c r="AC5" t="n">
-        <v>728.697208458869</v>
+        <v>809.8411812409677</v>
       </c>
       <c r="AD5" t="n">
-        <v>588769.7157742808</v>
+        <v>654332.0827452651</v>
       </c>
       <c r="AE5" t="n">
-        <v>805580.6998090303</v>
+        <v>895286.0227062259</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.795408840657334e-06</v>
+        <v>3.307919661840475e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.63237847222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>728697.208458869</v>
+        <v>809841.1812409677</v>
       </c>
     </row>
   </sheetData>
@@ -28893,28 +28893,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1422.406346754134</v>
+        <v>1509.830314430806</v>
       </c>
       <c r="AB2" t="n">
-        <v>1946.199115768201</v>
+        <v>2065.816445216674</v>
       </c>
       <c r="AC2" t="n">
-        <v>1760.456603666898</v>
+        <v>1868.657823076784</v>
       </c>
       <c r="AD2" t="n">
-        <v>1422406.346754134</v>
+        <v>1509830.314430806</v>
       </c>
       <c r="AE2" t="n">
-        <v>1946199.115768201</v>
+        <v>2065816.445216674</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.149209539438291e-06</v>
+        <v>2.052978974870299e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.00173611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1760456.603666898</v>
+        <v>1868657.823076784</v>
       </c>
     </row>
     <row r="3">
@@ -28999,28 +28999,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>882.3179357184645</v>
+        <v>950.2290340587605</v>
       </c>
       <c r="AB3" t="n">
-        <v>1207.22632477013</v>
+        <v>1300.145285545533</v>
       </c>
       <c r="AC3" t="n">
-        <v>1092.010338686857</v>
+        <v>1176.061244258436</v>
       </c>
       <c r="AD3" t="n">
-        <v>882317.9357184644</v>
+        <v>950229.0340587605</v>
       </c>
       <c r="AE3" t="n">
-        <v>1207226.32477013</v>
+        <v>1300145.285545533</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.519198461294048e-06</v>
+        <v>2.71393718261026e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.37282986111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1092010.338686857</v>
+        <v>1176061.244258436</v>
       </c>
     </row>
     <row r="4">
@@ -29105,28 +29105,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>751.3051419888978</v>
+        <v>819.1308994746222</v>
       </c>
       <c r="AB4" t="n">
-        <v>1027.968840512801</v>
+        <v>1120.771034166006</v>
       </c>
       <c r="AC4" t="n">
-        <v>929.8609371375878</v>
+        <v>1013.806219677228</v>
       </c>
       <c r="AD4" t="n">
-        <v>751305.1419888978</v>
+        <v>819130.8994746222</v>
       </c>
       <c r="AE4" t="n">
-        <v>1027968.840512801</v>
+        <v>1120771.034166006</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.653328249935257e-06</v>
+        <v>2.95355026145643e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.20746527777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>929860.9371375878</v>
+        <v>1013806.219677228</v>
       </c>
     </row>
     <row r="5">
@@ -29211,28 +29211,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>675.484513517698</v>
+        <v>743.395522349443</v>
       </c>
       <c r="AB5" t="n">
-        <v>924.2277116684537</v>
+        <v>1017.146549974308</v>
       </c>
       <c r="AC5" t="n">
-        <v>836.0207160285562</v>
+        <v>920.0715108189085</v>
       </c>
       <c r="AD5" t="n">
-        <v>675484.513517698</v>
+        <v>743395.5223494431</v>
       </c>
       <c r="AE5" t="n">
-        <v>924227.7116684538</v>
+        <v>1017146.549974308</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.722355282949412e-06</v>
+        <v>3.076862018462036e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.67795138888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>836020.7160285562</v>
+        <v>920071.5108189085</v>
       </c>
     </row>
     <row r="6">
@@ -29317,28 +29317,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>640.9520177629375</v>
+        <v>699.1493518623314</v>
       </c>
       <c r="AB6" t="n">
-        <v>876.9788275105985</v>
+        <v>956.6069875105654</v>
       </c>
       <c r="AC6" t="n">
-        <v>793.2811990605013</v>
+        <v>865.3097592288957</v>
       </c>
       <c r="AD6" t="n">
-        <v>640952.0177629376</v>
+        <v>699149.3518623314</v>
       </c>
       <c r="AE6" t="n">
-        <v>876978.8275105986</v>
+        <v>956606.9875105654</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.754051369537544e-06</v>
+        <v>3.133484764025834e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.45008680555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>793281.1990605013</v>
+        <v>865309.7592288957</v>
       </c>
     </row>
     <row r="7">
@@ -29423,28 +29423,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>643.490362516858</v>
+        <v>701.6876966162517</v>
       </c>
       <c r="AB7" t="n">
-        <v>880.4519027867799</v>
+        <v>960.0800627867467</v>
       </c>
       <c r="AC7" t="n">
-        <v>796.4228089068154</v>
+        <v>868.4513690752099</v>
       </c>
       <c r="AD7" t="n">
-        <v>643490.362516858</v>
+        <v>701687.6966162517</v>
       </c>
       <c r="AE7" t="n">
-        <v>880451.9027867799</v>
+        <v>960080.0627867467</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.753145767063598e-06</v>
+        <v>3.131866971295441e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.45659722222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>796422.8089068154</v>
+        <v>868451.3690752098</v>
       </c>
     </row>
   </sheetData>
